--- a/tva_matrix_screenshot.xlsx
+++ b/tva_matrix_screenshot.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surya\Downloads\Repository git1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surya\Downloads\coit20246y25t2-project-mel-prathyusha-surya-Private-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9641B7-5003-4300-855C-03F6C4E41ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027EEE89-F1C7-4A3F-A207-13DAB53BE919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="1095" windowWidth="15360" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>TVA Matrix</t>
   </si>
@@ -35,6 +36,78 @@
   </si>
   <si>
     <t>TVA 3</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Vulnerability</t>
+  </si>
+  <si>
+    <t>Asset Affected</t>
+  </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Risk Level</t>
+  </si>
+  <si>
+    <t>Phishing</t>
+  </si>
+  <si>
+    <t>Lack of employee awareness</t>
+  </si>
+  <si>
+    <t>Customer Data</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Malware</t>
+  </si>
+  <si>
+    <t>Weak endpoint security</t>
+  </si>
+  <si>
+    <t>Booking System</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Ransomware</t>
+  </si>
+  <si>
+    <t>Insufficient backups</t>
+  </si>
+  <si>
+    <t>Payment Records</t>
+  </si>
+  <si>
+    <t>Insider Threat</t>
+  </si>
+  <si>
+    <t>Poor access controls</t>
+  </si>
+  <si>
+    <t>Customer PII</t>
+  </si>
+  <si>
+    <t>DoS Attack</t>
+  </si>
+  <si>
+    <t>Insecure cloud infrastructure</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -58,12 +131,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -93,11 +190,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +503,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80D0633-8708-47DB-98F2-3BD425FDAFD1}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/tva_matrix_screenshot.xlsx
+++ b/tva_matrix_screenshot.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surya\Downloads\coit20246y25t2-project-mel-prathyusha-surya-Private-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027EEE89-F1C7-4A3F-A207-13DAB53BE919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472A3DBA-17D3-48CD-BFBD-976B8073864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>TVA Matrix</t>
   </si>
@@ -108,6 +109,36 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Network Design (HQ &amp; Branch)</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>IP Addressing, Subnets</t>
+  </si>
+  <si>
+    <t>Azure Estimate</t>
+  </si>
+  <si>
+    <t>GCP Estimate</t>
+  </si>
+  <si>
+    <t>Risk Assessment Matrix</t>
+  </si>
+  <si>
+    <t>Markdown Writing</t>
+  </si>
+  <si>
+    <t>Student A</t>
+  </si>
+  <si>
+    <t>Student B</t>
   </si>
 </sst>
 </file>
@@ -190,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -200,6 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80D0633-8708-47DB-98F2-3BD425FDAFD1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +678,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B395771-ABED-4602-849C-163C243CC9C6}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
